--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-40/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-40/curvature_data.xlsx
@@ -379,240 +379,240 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56549.835168</v>
+        <v>56417.639161</v>
       </c>
       <c r="B2">
-        <v>3.5949497974e-05</v>
+        <v>-1.7339491878e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00027314947415</v>
+        <v>-2.1927609161e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00040504249869</v>
+        <v>-3.5511127328e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>56473.103164</v>
+        <v>56428.903162</v>
       </c>
       <c r="B3">
-        <v>4.9496401983e-05</v>
+        <v>8.2122635271e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00033475007032</v>
+        <v>-3.4613032592e-05</v>
       </c>
       <c r="D3">
-        <v>-0.0005019010462</v>
+        <v>-0.00016404101455</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>56504.971165</v>
+        <v>56440.239162</v>
       </c>
       <c r="B4">
-        <v>-6.421611152e-05</v>
+        <v>5.1937895424e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00054684401063</v>
+        <v>-0.0001251329801</v>
       </c>
       <c r="D4">
-        <v>-0.00076033422642</v>
+        <v>-0.00023856194537</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>56483.171164</v>
+        <v>56450.839163</v>
       </c>
       <c r="B5">
-        <v>3.9300988289e-05</v>
+        <v>5.7526496458e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00039868190466</v>
+        <v>-0.00020116542878</v>
       </c>
       <c r="D5">
-        <v>-0.00059103739799</v>
+        <v>-0.0003252531044</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>56428.903162</v>
+        <v>56462.439163</v>
       </c>
       <c r="B6">
-        <v>8.2122635271e-05</v>
+        <v>4.6269292804e-05</v>
       </c>
       <c r="C6">
-        <v>-3.4613032592e-05</v>
+        <v>-0.0002791423604</v>
       </c>
       <c r="D6">
-        <v>-0.00016404101455</v>
+        <v>-0.00040348740475</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>56561.171168</v>
+        <v>56473.103164</v>
       </c>
       <c r="B7">
-        <v>8.3186103223e-05</v>
+        <v>4.9496401983e-05</v>
       </c>
       <c r="C7">
-        <v>-0.00020209587491</v>
+        <v>-0.00033475007032</v>
       </c>
       <c r="D7">
-        <v>-0.0003141731861</v>
+        <v>-0.0005019010462</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>56582.035169</v>
+        <v>56483.171164</v>
       </c>
       <c r="B8">
-        <v>-1.4016947448e-06</v>
+        <v>3.9300988289e-05</v>
       </c>
       <c r="C8">
-        <v>-5.8267623574e-05</v>
+        <v>-0.00039868190466</v>
       </c>
       <c r="D8">
-        <v>-0.00015502749687</v>
+        <v>-0.00059103739799</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>56592.30317</v>
+        <v>56495.039165</v>
       </c>
       <c r="B9">
-        <v>-1.7991409852e-05</v>
+        <v>-1.3143850302e-05</v>
       </c>
       <c r="C9">
-        <v>-2.2277220039e-05</v>
+        <v>-0.00047382457277</v>
       </c>
       <c r="D9">
-        <v>-3.4964985201e-05</v>
+        <v>-0.00067702372492</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>56462.439163</v>
+        <v>56504.971165</v>
       </c>
       <c r="B10">
-        <v>4.6269292804e-05</v>
+        <v>-6.421611152e-05</v>
       </c>
       <c r="C10">
-        <v>-0.0002791423604</v>
+        <v>-0.00054684401063</v>
       </c>
       <c r="D10">
-        <v>-0.00040348740475</v>
+        <v>-0.00076033422642</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>56440.239162</v>
+        <v>56516.371166</v>
       </c>
       <c r="B11">
-        <v>5.1937895424e-05</v>
+        <v>-2.5263824152e-05</v>
       </c>
       <c r="C11">
-        <v>-0.0001251329801</v>
+        <v>-0.00047385760264</v>
       </c>
       <c r="D11">
-        <v>-0.00023856194537</v>
+        <v>-0.00067514892963</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>56516.371166</v>
+        <v>56526.903167</v>
       </c>
       <c r="B12">
-        <v>-2.5263824152e-05</v>
+        <v>3.106153728e-05</v>
       </c>
       <c r="C12">
-        <v>-0.00047385760264</v>
+        <v>-0.00040023252361</v>
       </c>
       <c r="D12">
-        <v>-0.00067514892963</v>
+        <v>-0.00058751228392</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56495.039165</v>
+        <v>56537.571167</v>
       </c>
       <c r="B13">
-        <v>-1.3143850302e-05</v>
+        <v>5.540661065e-05</v>
       </c>
       <c r="C13">
-        <v>-0.00047382457277</v>
+        <v>-0.00032937073531</v>
       </c>
       <c r="D13">
-        <v>-0.00067702372492</v>
+        <v>-0.00050182629206</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>56417.639161</v>
+        <v>56549.835168</v>
       </c>
       <c r="B14">
-        <v>-1.7339491878e-05</v>
+        <v>3.5949497974e-05</v>
       </c>
       <c r="C14">
-        <v>-2.1927609161e-05</v>
+        <v>-0.00027314947415</v>
       </c>
       <c r="D14">
-        <v>-3.5511127328e-05</v>
+        <v>-0.00040504249869</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>56450.839163</v>
+        <v>56561.171168</v>
       </c>
       <c r="B15">
-        <v>5.7526496458e-05</v>
+        <v>8.3186103223e-05</v>
       </c>
       <c r="C15">
-        <v>-0.00020116542878</v>
+        <v>-0.00020209587491</v>
       </c>
       <c r="D15">
-        <v>-0.0003252531044</v>
+        <v>-0.0003141731861</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>56537.571167</v>
+        <v>56572.103169</v>
       </c>
       <c r="B16">
-        <v>5.540661065e-05</v>
+        <v>5.609868371e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00032937073531</v>
+        <v>-0.00012087390268</v>
       </c>
       <c r="D16">
-        <v>-0.00050182629206</v>
+        <v>-0.00023611412116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>56572.103169</v>
+        <v>56582.035169</v>
       </c>
       <c r="B17">
-        <v>5.609868371e-05</v>
+        <v>-1.4016947448e-06</v>
       </c>
       <c r="C17">
-        <v>-0.00012087390268</v>
+        <v>-5.8267623574e-05</v>
       </c>
       <c r="D17">
-        <v>-0.00023611412116</v>
+        <v>-0.00015502749687</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>56526.903167</v>
+        <v>56592.30317</v>
       </c>
       <c r="B18">
-        <v>3.106153728e-05</v>
+        <v>-1.7991409852e-05</v>
       </c>
       <c r="C18">
-        <v>-0.00040023252361</v>
+        <v>-2.2277220039e-05</v>
       </c>
       <c r="D18">
-        <v>-0.00058751228392</v>
+        <v>-3.4964985201e-05</v>
       </c>
     </row>
   </sheetData>
